--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Angpt2-Tek.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Angpt2-Tek.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.62964533333333</v>
+        <v>9.450759333333334</v>
       </c>
       <c r="H2">
-        <v>73.888936</v>
+        <v>28.352278</v>
       </c>
       <c r="I2">
-        <v>0.7460691037955391</v>
+        <v>0.6100581096599255</v>
       </c>
       <c r="J2">
-        <v>0.746069103795539</v>
+        <v>0.6100581096599255</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>64.221457</v>
+        <v>56.16842399999999</v>
       </c>
       <c r="N2">
-        <v>192.664371</v>
+        <v>168.505272</v>
       </c>
       <c r="O2">
-        <v>0.8366610301096816</v>
+        <v>0.8021403195141494</v>
       </c>
       <c r="P2">
-        <v>0.8366610301096816</v>
+        <v>0.8021403195141494</v>
       </c>
       <c r="Q2">
-        <v>1581.751708699917</v>
+        <v>530.834257356624</v>
       </c>
       <c r="R2">
-        <v>14235.76537829926</v>
+        <v>4777.508316209616</v>
       </c>
       <c r="S2">
-        <v>0.6242069449145827</v>
+        <v>0.4893522070048106</v>
       </c>
       <c r="T2">
-        <v>0.6242069449145826</v>
+        <v>0.4893522070048106</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.62964533333333</v>
+        <v>9.450759333333334</v>
       </c>
       <c r="H3">
-        <v>73.888936</v>
+        <v>28.352278</v>
       </c>
       <c r="I3">
-        <v>0.7460691037955391</v>
+        <v>0.6100581096599255</v>
       </c>
       <c r="J3">
-        <v>0.746069103795539</v>
+        <v>0.6100581096599255</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>31.747611</v>
       </c>
       <c r="O3">
-        <v>0.1378666371208897</v>
+        <v>0.1511290331103168</v>
       </c>
       <c r="P3">
-        <v>0.1378666371208896</v>
+        <v>0.1511290331103167</v>
       </c>
       <c r="Q3">
-        <v>260.6441330368773</v>
+        <v>100.0130103230953</v>
       </c>
       <c r="R3">
-        <v>2345.797197331896</v>
+        <v>900.117092907858</v>
       </c>
       <c r="S3">
-        <v>0.102858038400087</v>
+        <v>0.09219749225401212</v>
       </c>
       <c r="T3">
-        <v>0.1028580384000869</v>
+        <v>0.09219749225401211</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.62964533333333</v>
+        <v>9.450759333333334</v>
       </c>
       <c r="H4">
-        <v>73.888936</v>
+        <v>28.352278</v>
       </c>
       <c r="I4">
-        <v>0.7460691037955391</v>
+        <v>0.6100581096599255</v>
       </c>
       <c r="J4">
-        <v>0.746069103795539</v>
+        <v>0.6100581096599255</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.955236666666667</v>
+        <v>3.262797333333333</v>
       </c>
       <c r="N4">
-        <v>5.86571</v>
+        <v>9.788392</v>
       </c>
       <c r="O4">
-        <v>0.02547233276942866</v>
+        <v>0.04659595390231912</v>
       </c>
       <c r="P4">
-        <v>0.02547233276942866</v>
+        <v>0.04659595390231912</v>
       </c>
       <c r="Q4">
-        <v>48.15678564272889</v>
+        <v>30.83591235077511</v>
       </c>
       <c r="R4">
-        <v>433.41107078456</v>
+        <v>277.523211156976</v>
       </c>
       <c r="S4">
-        <v>0.01900412048086939</v>
+        <v>0.02842623955544983</v>
       </c>
       <c r="T4">
-        <v>0.01900412048086938</v>
+        <v>0.02842623955544983</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.769696333333333</v>
+        <v>9.450759333333334</v>
       </c>
       <c r="H5">
-        <v>5.309088999999999</v>
+        <v>28.352278</v>
       </c>
       <c r="I5">
-        <v>0.05360677100832464</v>
+        <v>0.6100581096599255</v>
       </c>
       <c r="J5">
-        <v>0.05360677100832463</v>
+        <v>0.6100581096599255</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>64.221457</v>
+        <v>0.009431666666666666</v>
       </c>
       <c r="N5">
-        <v>192.664371</v>
+        <v>0.028295</v>
       </c>
       <c r="O5">
-        <v>0.8366610301096816</v>
+        <v>0.0001346934732146117</v>
       </c>
       <c r="P5">
-        <v>0.8366610301096816</v>
+        <v>0.0001346934732146117</v>
       </c>
       <c r="Q5">
-        <v>113.6524769742243</v>
+        <v>0.0891364117788889</v>
       </c>
       <c r="R5">
-        <v>1022.872292768019</v>
+        <v>0.80222770601</v>
       </c>
       <c r="S5">
-        <v>0.04485069625267871</v>
+        <v>8.217084565283581E-05</v>
       </c>
       <c r="T5">
-        <v>0.0448506962526787</v>
+        <v>8.217084565283584E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,13 +788,13 @@
         <v>1.769696333333333</v>
       </c>
       <c r="H6">
-        <v>5.309088999999999</v>
+        <v>5.309089</v>
       </c>
       <c r="I6">
-        <v>0.05360677100832464</v>
+        <v>0.1142360694740755</v>
       </c>
       <c r="J6">
-        <v>0.05360677100832463</v>
+        <v>0.1142360694740756</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.582537</v>
+        <v>56.16842399999999</v>
       </c>
       <c r="N6">
-        <v>31.747611</v>
+        <v>168.505272</v>
       </c>
       <c r="O6">
-        <v>0.1378666371208897</v>
+        <v>0.8021403195141494</v>
       </c>
       <c r="P6">
-        <v>0.1378666371208896</v>
+        <v>0.8021403195141494</v>
       </c>
       <c r="Q6">
-        <v>18.72787692626433</v>
+        <v>99.40105400191199</v>
       </c>
       <c r="R6">
-        <v>168.550892336379</v>
+        <v>894.6094860172079</v>
       </c>
       <c r="S6">
-        <v>0.007390585245827322</v>
+        <v>0.09163335726797553</v>
       </c>
       <c r="T6">
-        <v>0.007390585245827319</v>
+        <v>0.09163335726797554</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -850,13 +850,13 @@
         <v>1.769696333333333</v>
       </c>
       <c r="H7">
-        <v>5.309088999999999</v>
+        <v>5.309089</v>
       </c>
       <c r="I7">
-        <v>0.05360677100832464</v>
+        <v>0.1142360694740755</v>
       </c>
       <c r="J7">
-        <v>0.05360677100832463</v>
+        <v>0.1142360694740756</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.955236666666667</v>
+        <v>10.582537</v>
       </c>
       <c r="N7">
-        <v>5.86571</v>
+        <v>31.747611</v>
       </c>
       <c r="O7">
-        <v>0.02547233276942866</v>
+        <v>0.1511290331103168</v>
       </c>
       <c r="P7">
-        <v>0.02547233276942866</v>
+        <v>0.1511290331103167</v>
       </c>
       <c r="Q7">
-        <v>3.460175159798888</v>
+        <v>18.72787692626433</v>
       </c>
       <c r="R7">
-        <v>31.14157643819</v>
+        <v>168.550892336379</v>
       </c>
       <c r="S7">
-        <v>0.001365489509818606</v>
+        <v>0.01726438672594001</v>
       </c>
       <c r="T7">
-        <v>0.001365489509818606</v>
+        <v>0.01726438672594001</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.338186666666666</v>
+        <v>1.769696333333333</v>
       </c>
       <c r="H8">
-        <v>16.01456</v>
+        <v>5.309089</v>
       </c>
       <c r="I8">
-        <v>0.1617017252336654</v>
+        <v>0.1142360694740755</v>
       </c>
       <c r="J8">
-        <v>0.1617017252336654</v>
+        <v>0.1142360694740756</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.221457</v>
+        <v>3.262797333333333</v>
       </c>
       <c r="N8">
-        <v>192.664371</v>
+        <v>9.788392</v>
       </c>
       <c r="O8">
-        <v>0.8366610301096816</v>
+        <v>0.04659595390231912</v>
       </c>
       <c r="P8">
-        <v>0.8366610301096816</v>
+        <v>0.04659595390231912</v>
       </c>
       <c r="Q8">
-        <v>342.8261254713066</v>
+        <v>5.774160477209778</v>
       </c>
       <c r="R8">
-        <v>3085.43512924176</v>
+        <v>51.967444294888</v>
       </c>
       <c r="S8">
-        <v>0.1352895320045112</v>
+        <v>0.005322938627196148</v>
       </c>
       <c r="T8">
-        <v>0.1352895320045112</v>
+        <v>0.005322938627196149</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.338186666666666</v>
+        <v>1.769696333333333</v>
       </c>
       <c r="H9">
-        <v>16.01456</v>
+        <v>5.309089</v>
       </c>
       <c r="I9">
-        <v>0.1617017252336654</v>
+        <v>0.1142360694740755</v>
       </c>
       <c r="J9">
-        <v>0.1617017252336654</v>
+        <v>0.1142360694740756</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>10.582537</v>
+        <v>0.009431666666666666</v>
       </c>
       <c r="N9">
-        <v>31.747611</v>
+        <v>0.028295</v>
       </c>
       <c r="O9">
-        <v>0.1378666371208897</v>
+        <v>0.0001346934732146117</v>
       </c>
       <c r="P9">
-        <v>0.1378666371208896</v>
+        <v>0.0001346934732146117</v>
       </c>
       <c r="Q9">
-        <v>56.49155791290666</v>
+        <v>0.01669118591722222</v>
       </c>
       <c r="R9">
-        <v>508.42402121616</v>
+        <v>0.150220673255</v>
       </c>
       <c r="S9">
-        <v>0.02229327307461156</v>
+        <v>1.538685296384891E-05</v>
       </c>
       <c r="T9">
-        <v>0.02229327307461155</v>
+        <v>1.538685296384892E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.338186666666666</v>
+        <v>3.398621333333333</v>
       </c>
       <c r="H10">
-        <v>16.01456</v>
+        <v>10.195864</v>
       </c>
       <c r="I10">
-        <v>0.1617017252336654</v>
+        <v>0.2193851766757396</v>
       </c>
       <c r="J10">
-        <v>0.1617017252336654</v>
+        <v>0.2193851766757396</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1051,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.955236666666667</v>
+        <v>56.16842399999999</v>
       </c>
       <c r="N10">
-        <v>5.86571</v>
+        <v>168.505272</v>
       </c>
       <c r="O10">
-        <v>0.02547233276942866</v>
+        <v>0.8021403195141494</v>
       </c>
       <c r="P10">
-        <v>0.02547233276942866</v>
+        <v>0.8021403195141494</v>
       </c>
       <c r="Q10">
-        <v>10.43741830417778</v>
+        <v>190.895204066112</v>
       </c>
       <c r="R10">
-        <v>93.9367647376</v>
+        <v>1718.056836595008</v>
       </c>
       <c r="S10">
-        <v>0.004118920154542645</v>
+        <v>0.1759776957153459</v>
       </c>
       <c r="T10">
-        <v>0.004118920154542643</v>
+        <v>0.1759776957153459</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.275024</v>
+        <v>3.398621333333333</v>
       </c>
       <c r="H11">
-        <v>3.825072</v>
+        <v>10.195864</v>
       </c>
       <c r="I11">
-        <v>0.03862239996247084</v>
+        <v>0.2193851766757396</v>
       </c>
       <c r="J11">
-        <v>0.03862239996247083</v>
+        <v>0.2193851766757396</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,33 +1113,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>64.221457</v>
+        <v>10.582537</v>
       </c>
       <c r="N11">
-        <v>192.664371</v>
+        <v>31.747611</v>
       </c>
       <c r="O11">
-        <v>0.8366610301096816</v>
+        <v>0.1511290331103168</v>
       </c>
       <c r="P11">
-        <v>0.8366610301096816</v>
+        <v>0.1511290331103167</v>
       </c>
       <c r="Q11">
-        <v>81.883898989968</v>
+        <v>35.96603600898933</v>
       </c>
       <c r="R11">
-        <v>736.9550909097121</v>
+        <v>323.694324080904</v>
       </c>
       <c r="S11">
-        <v>0.03231385693790898</v>
+        <v>0.03315546962974054</v>
       </c>
       <c r="T11">
-        <v>0.03231385693790897</v>
+        <v>0.03315546962974054</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.275024</v>
+        <v>3.398621333333333</v>
       </c>
       <c r="H12">
-        <v>3.825072</v>
+        <v>10.195864</v>
       </c>
       <c r="I12">
-        <v>0.03862239996247084</v>
+        <v>0.2193851766757396</v>
       </c>
       <c r="J12">
-        <v>0.03862239996247083</v>
+        <v>0.2193851766757396</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.582537</v>
+        <v>3.262797333333333</v>
       </c>
       <c r="N12">
-        <v>31.747611</v>
+        <v>9.788392</v>
       </c>
       <c r="O12">
-        <v>0.1378666371208897</v>
+        <v>0.04659595390231912</v>
       </c>
       <c r="P12">
-        <v>0.1378666371208896</v>
+        <v>0.04659595390231912</v>
       </c>
       <c r="Q12">
-        <v>13.492988655888</v>
+        <v>11.08901262340978</v>
       </c>
       <c r="R12">
-        <v>121.436897902992</v>
+        <v>99.80111361068801</v>
       </c>
       <c r="S12">
-        <v>0.00532474040036383</v>
+        <v>0.0102224615792349</v>
       </c>
       <c r="T12">
-        <v>0.005324740400363829</v>
+        <v>0.0102224615792349</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.398621333333333</v>
+      </c>
+      <c r="H13">
+        <v>10.195864</v>
+      </c>
+      <c r="I13">
+        <v>0.2193851766757396</v>
+      </c>
+      <c r="J13">
+        <v>0.2193851766757396</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.009431666666666666</v>
+      </c>
+      <c r="N13">
+        <v>0.028295</v>
+      </c>
+      <c r="O13">
+        <v>0.0001346934732146117</v>
+      </c>
+      <c r="P13">
+        <v>0.0001346934732146117</v>
+      </c>
+      <c r="Q13">
+        <v>0.03205466354222222</v>
+      </c>
+      <c r="R13">
+        <v>0.28849197188</v>
+      </c>
+      <c r="S13">
+        <v>2.954975141825659E-05</v>
+      </c>
+      <c r="T13">
+        <v>2.95497514182566E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.8724953333333333</v>
+      </c>
+      <c r="H14">
+        <v>2.617486</v>
+      </c>
+      <c r="I14">
+        <v>0.0563206441902594</v>
+      </c>
+      <c r="J14">
+        <v>0.05632064419025941</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>56.16842399999999</v>
+      </c>
+      <c r="N14">
+        <v>168.505272</v>
+      </c>
+      <c r="O14">
+        <v>0.8021403195141494</v>
+      </c>
+      <c r="P14">
+        <v>0.8021403195141494</v>
+      </c>
+      <c r="Q14">
+        <v>49.00668782068799</v>
+      </c>
+      <c r="R14">
+        <v>441.0601903861919</v>
+      </c>
+      <c r="S14">
+        <v>0.0451770595260174</v>
+      </c>
+      <c r="T14">
+        <v>0.04517705952601741</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.8724953333333333</v>
+      </c>
+      <c r="H15">
+        <v>2.617486</v>
+      </c>
+      <c r="I15">
+        <v>0.0563206441902594</v>
+      </c>
+      <c r="J15">
+        <v>0.05632064419025941</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10.582537</v>
+      </c>
+      <c r="N15">
+        <v>31.747611</v>
+      </c>
+      <c r="O15">
+        <v>0.1511290331103168</v>
+      </c>
+      <c r="P15">
+        <v>0.1511290331103167</v>
+      </c>
+      <c r="Q15">
+        <v>9.233214147327333</v>
+      </c>
+      <c r="R15">
+        <v>83.09892732594599</v>
+      </c>
+      <c r="S15">
+        <v>0.008511684500624082</v>
+      </c>
+      <c r="T15">
+        <v>0.008511684500624081</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1.275024</v>
-      </c>
-      <c r="H13">
-        <v>3.825072</v>
-      </c>
-      <c r="I13">
-        <v>0.03862239996247084</v>
-      </c>
-      <c r="J13">
-        <v>0.03862239996247083</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.955236666666667</v>
-      </c>
-      <c r="N13">
-        <v>5.86571</v>
-      </c>
-      <c r="O13">
-        <v>0.02547233276942866</v>
-      </c>
-      <c r="P13">
-        <v>0.02547233276942866</v>
-      </c>
-      <c r="Q13">
-        <v>2.49297367568</v>
-      </c>
-      <c r="R13">
-        <v>22.43676308112</v>
-      </c>
-      <c r="S13">
-        <v>0.0009838026241980261</v>
-      </c>
-      <c r="T13">
-        <v>0.0009838026241980259</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.8724953333333333</v>
+      </c>
+      <c r="H16">
+        <v>2.617486</v>
+      </c>
+      <c r="I16">
+        <v>0.0563206441902594</v>
+      </c>
+      <c r="J16">
+        <v>0.05632064419025941</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>3.262797333333333</v>
+      </c>
+      <c r="N16">
+        <v>9.788392</v>
+      </c>
+      <c r="O16">
+        <v>0.04659595390231912</v>
+      </c>
+      <c r="P16">
+        <v>0.04659595390231912</v>
+      </c>
+      <c r="Q16">
+        <v>2.846775446945778</v>
+      </c>
+      <c r="R16">
+        <v>25.620979022512</v>
+      </c>
+      <c r="S16">
+        <v>0.002624314140438244</v>
+      </c>
+      <c r="T16">
+        <v>0.002624314140438245</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.8724953333333333</v>
+      </c>
+      <c r="H17">
+        <v>2.617486</v>
+      </c>
+      <c r="I17">
+        <v>0.0563206441902594</v>
+      </c>
+      <c r="J17">
+        <v>0.05632064419025941</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.009431666666666666</v>
+      </c>
+      <c r="N17">
+        <v>0.028295</v>
+      </c>
+      <c r="O17">
+        <v>0.0001346934732146117</v>
+      </c>
+      <c r="P17">
+        <v>0.0001346934732146117</v>
+      </c>
+      <c r="Q17">
+        <v>0.008229085152222222</v>
+      </c>
+      <c r="R17">
+        <v>0.07406176637</v>
+      </c>
+      <c r="S17">
+        <v>7.58602317967038E-06</v>
+      </c>
+      <c r="T17">
+        <v>7.586023179670383E-06</v>
       </c>
     </row>
   </sheetData>
